--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\promact\13. Software Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\promact\13. Software Testing\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6E3D95-903C-4F42-BC7A-E9E513C714AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E792A0DB-3778-4BBC-94D8-63E845CA86F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB64C85C-3C98-4C36-AD50-4DAB25571F7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CB64C85C-3C98-4C36-AD50-4DAB25571F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
   <si>
     <t>Serial no</t>
   </si>
@@ -183,6 +183,20 @@
   </si>
   <si>
     <t>Enter the Employee Details to login</t>
+  </si>
+  <si>
+    <t>Check Response on clicking Submit button</t>
+  </si>
+  <si>
+    <t>1. Open the portal
+2. Click forgot password icon
+4. Click Submit button</t>
+  </si>
+  <si>
+    <t>It must ask you to enter Email id</t>
+  </si>
+  <si>
+    <t>Enter an email id</t>
   </si>
 </sst>
 </file>
@@ -954,10 +968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA52826-48EF-49A6-AED7-864930B1B724}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1062,7 +1076,7 @@
     </row>
     <row r="4" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>27</v>
@@ -1086,6 +1100,35 @@
         <v>44</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1098,7 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AEAA23-0FF8-4484-BB63-E0CC4A2ABF9F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/Assignment.xlsx
+++ b/Assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\promact\13. Software Testing\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E792A0DB-3778-4BBC-94D8-63E845CA86F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFA41CB-29A7-479E-AC2B-5F9A64885D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CB64C85C-3C98-4C36-AD50-4DAB25571F7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CB64C85C-3C98-4C36-AD50-4DAB25571F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="158">
   <si>
     <t>Serial no</t>
   </si>
@@ -197,13 +197,394 @@
   </si>
   <si>
     <t>Enter an email id</t>
+  </si>
+  <si>
+    <t>Check response upon clicking add button</t>
+  </si>
+  <si>
+    <t>1. Go to the login page
+2. Click add button</t>
+  </si>
+  <si>
+    <t>A user must be logged in to the page</t>
+  </si>
+  <si>
+    <t>A form must be opened</t>
+  </si>
+  <si>
+    <t>A form is opened</t>
+  </si>
+  <si>
+    <t>Check if the form contain all the necesssary elements such as Employee name, date of birth, city name, state, age, email, department name, Submit &amp; reset button</t>
+  </si>
+  <si>
+    <t>A form with all the necessary elements must be opened</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Check if the form accepts only alphabets for employee name</t>
+  </si>
+  <si>
+    <t>1. Go to the login page
+2. Click add button
+3. Fill Employee Name</t>
+  </si>
+  <si>
+    <t>Uttam Kumar Das</t>
+  </si>
+  <si>
+    <t>Name must accept alphabets only</t>
+  </si>
+  <si>
+    <t>Alphabets accepted for employee name</t>
+  </si>
+  <si>
+    <t>Check if the form accepts not only alphabets but also other combination of characters</t>
+  </si>
+  <si>
+    <t>Uttam@123</t>
+  </si>
+  <si>
+    <t>Name shouldn't be accepted</t>
+  </si>
+  <si>
+    <t>Check if the form accepts the date format i.e DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>1. Go to the login page
+2. Click add button
+3. Fill Employee Date of Birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date format must be accpted </t>
+  </si>
+  <si>
+    <t>Date is accepted</t>
+  </si>
+  <si>
+    <t>Check if the form accepts any other date format other than the original one</t>
+  </si>
+  <si>
+    <t>Upon clicking dropdown against City name check if a list of options showing  city name appears or not</t>
+  </si>
+  <si>
+    <t>Upon clicking dropdown against State check if a list of options showing  different States appears or not</t>
+  </si>
+  <si>
+    <t>Check if the form accepts only numeric value for age</t>
+  </si>
+  <si>
+    <t>Check if the form accepts values other than numeric for age.</t>
+  </si>
+  <si>
+    <t>Check if the form accepts proper format for email</t>
+  </si>
+  <si>
+    <t>Check if the form accepts any other formats for email</t>
+  </si>
+  <si>
+    <t>Check if the form accepts Certain  low range of age.</t>
+  </si>
+  <si>
+    <t>Upon clicking dropdown against Department name check if a list of options showing  the Department names(i.e. HR, IT, Accounts &amp; Sales) appears or not</t>
+  </si>
+  <si>
+    <t>Check if clicking the Submit button after filling the form Submits the data or not</t>
+  </si>
+  <si>
+    <t>Check if clicking the Submit button without filling the form Submits the data or not</t>
+  </si>
+  <si>
+    <t>Check if clicking the Reset button after filling the form clears the input data or not</t>
+  </si>
+  <si>
+    <t>DOB: 10/01/1997</t>
+  </si>
+  <si>
+    <t>DOB: 1997/10/01
+DOB: 10-01-1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date format must not be accpted </t>
+  </si>
+  <si>
+    <t>Date is not accepted</t>
+  </si>
+  <si>
+    <t>1. Go to the login page
+2. Click add button
+3. Click City name</t>
+  </si>
+  <si>
+    <t>City names must appear in dropdown option</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>City name must be accepted</t>
+  </si>
+  <si>
+    <t>Balasore</t>
+  </si>
+  <si>
+    <t>City name is accepted</t>
+  </si>
+  <si>
+    <t>1. Go to the login page
+2. Click add button
+3. Click State</t>
+  </si>
+  <si>
+    <t>State must appear in dropdown option</t>
+  </si>
+  <si>
+    <t>State name Appeared</t>
+  </si>
+  <si>
+    <t>Check if form accepts the value from the State Dropdown menu when a State is selected</t>
+  </si>
+  <si>
+    <t>Check if form accepts the value from the Cityname Dropdown menu when a city name is selected</t>
+  </si>
+  <si>
+    <t>State must be accepted</t>
+  </si>
+  <si>
+    <t>State name Accepted</t>
+  </si>
+  <si>
+    <t>1. Go to the login page
+2. Click add button
+3. Fill age</t>
+  </si>
+  <si>
+    <t>Age must be accepted</t>
+  </si>
+  <si>
+    <t>Email must be accepted</t>
+  </si>
+  <si>
+    <t>Age is accepted</t>
+  </si>
+  <si>
+    <t>Age shouldn't be accepted</t>
+  </si>
+  <si>
+    <t>As is not accepted</t>
+  </si>
+  <si>
+    <t>Age: 24</t>
+  </si>
+  <si>
+    <t>Age: m24</t>
+  </si>
+  <si>
+    <t>Age: 0
+Age: 10
+Age: 80</t>
+  </si>
+  <si>
+    <t>Age limit can be between 20 to 60</t>
+  </si>
+  <si>
+    <t>Check add employee functionality for an employee portal</t>
+  </si>
+  <si>
+    <t>1. Go to the login page
+2. Click add button
+3. Enter Email address</t>
+  </si>
+  <si>
+    <t>Email is accepted</t>
+  </si>
+  <si>
+    <t>Email mustn't be accepted</t>
+  </si>
+  <si>
+    <t>Email is not accepted</t>
+  </si>
+  <si>
+    <t>1. Go to the login page
+2. Click add button
+3. Click Department name</t>
+  </si>
+  <si>
+    <t>Department names must appear in dropdown option</t>
+  </si>
+  <si>
+    <t>Department names are appeared</t>
+  </si>
+  <si>
+    <t>1. Go to the login page
+2. Click add button
+3. Click City name
+4. Select City name</t>
+  </si>
+  <si>
+    <t>1. Go to the login page
+2. Click add button
+3. Click State
+4. Select State</t>
+  </si>
+  <si>
+    <t>1. Go to the login page
+2. Click add button
+3. Click Department name
+4. Select Department name</t>
+  </si>
+  <si>
+    <t>Check if form accepts the value from the Department name Dropdown menu when a Department name is selected</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Department name must be accepted</t>
+  </si>
+  <si>
+    <t>1. Go to the login page
+2. Click add button
+3. Fill the Form
+4. Click Submit</t>
+  </si>
+  <si>
+    <t>The form must be Submiited &amp; stored as a new record</t>
+  </si>
+  <si>
+    <t>1. Go to the login page
+2. Click add button
+3. Click Submit</t>
+  </si>
+  <si>
+    <t>It must ask user to fill the form first inorder to submit</t>
+  </si>
+  <si>
+    <t>1. Go to the login page
+2. Click add button
+3. Fill the Form
+4. Click Reset</t>
+  </si>
+  <si>
+    <t>It must clear all the filled forms &amp; all the filled attributes must appear as empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if Any attribute in the form  left empty, it will show any error message or not </t>
+  </si>
+  <si>
+    <t>1. Go to the login page
+2. Click add button
+3. Don't fill Employee name
+4. Click on Dob</t>
+  </si>
+  <si>
+    <t>It must show a validation message</t>
+  </si>
+  <si>
+    <t>A validation message pop-up showing "All fields are required to be filled in each form field"</t>
+  </si>
+  <si>
+    <t>Check edit employee functionality for an employee portal</t>
+  </si>
+  <si>
+    <t>Check if clicking Edit opens the same filled form or not</t>
+  </si>
+  <si>
+    <t>A form is opened with the Employee details in it</t>
+  </si>
+  <si>
+    <t>It must show a form with same filled data of the perticular employee</t>
+  </si>
+  <si>
+    <t>Check if clicking edit for one entry in the form Works or not</t>
+  </si>
+  <si>
+    <t>Check if clicking edit for all entry in the form Works or not</t>
+  </si>
+  <si>
+    <t>Edit option for employee name must work &amp; name can be changed with same Validation</t>
+  </si>
+  <si>
+    <t>Edit option for all the entry must work &amp; the corresponding values  can be changed with same validation against each entry</t>
+  </si>
+  <si>
+    <t>The Employee list must be updated with the new data</t>
+  </si>
+  <si>
+    <t>Check if clicking edit for all entry &amp; resetting the form again clears the form or not</t>
+  </si>
+  <si>
+    <t>Check if clicking edit for all entry &amp; submitting the form again with new data Works or not</t>
+  </si>
+  <si>
+    <t>The shown details of the employee must be cleared &amp; all the entries must be resets back to empty.</t>
+  </si>
+  <si>
+    <t>Check Delete employee functionality for an employee portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to login page
+2.Click delete button against any employee in the employee list
+</t>
+  </si>
+  <si>
+    <t>1. Go to login page
+2.Click edit button against any employee in the employee list
+3. Click Reset</t>
+  </si>
+  <si>
+    <t>1. Go to login page
+2.Click edit button against any employee in the employee list
+3. Click edit against all entry in the form
+4. Update form with new data
+5. Click Submit</t>
+  </si>
+  <si>
+    <t>1. Go to login page
+2.Click edit button against any employee in the employee list
+3. Click edit against all entry in the form</t>
+  </si>
+  <si>
+    <t>1. Go to login page
+2.Click edit button against any employee in the employee list
+3. Click edit against Employee name</t>
+  </si>
+  <si>
+    <t>1. Go to login page
+2.Click edit button against any employee in the employee list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if on clicking delete button an alert box appears or not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An alert box must appear with a confirmation message to delete the entry completely </t>
+  </si>
+  <si>
+    <t>An alert box appeared with a message"Are you sure to Delete"</t>
+  </si>
+  <si>
+    <t>Check if on clicking delete button after confirmation, the employee list gets updated or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to login page
+2.Click delete button against any employee in the employee list
+3. Click yes on the alert box
+</t>
+  </si>
+  <si>
+    <t>Data must be deleted Successfully</t>
+  </si>
+  <si>
+    <t>Data Deleted succesfully &amp; the list gets updated.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +618,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -277,11 +666,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -319,9 +709,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="60% - Accent3" xfId="1" builtinId="40"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -637,7 +1043,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -970,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA52826-48EF-49A6-AED7-864930B1B724}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,12 +1545,904 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AEAA23-0FF8-4484-BB63-E0CC4A2ABF9F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{E31C6E01-12E8-4AC0-9D9D-B472A0A2340E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>